--- a/DownloadFolder/CompanyInsights_Search_2024-11-05.xlsx
+++ b/DownloadFolder/CompanyInsights_Search_2024-11-05.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="376">
   <si>
     <t>#</t>
   </si>
@@ -50,1087 +50,1093 @@
     <t>Founding Year / Est.</t>
   </si>
   <si>
-    <t>Cowles Family Farm</t>
+    <t>D And R Farms Inc</t>
   </si>
   <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Park City</t>
+    <t>Altus</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Farming &amp; Hunting</t>
+  </si>
+  <si>
+    <t>$401.0k USD</t>
+  </si>
+  <si>
+    <t>-16.02%</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>Schaller Family Farm</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>-11.67%</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Twisted Oak Farm</t>
+  </si>
+  <si>
+    <t>Bulverde</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>12.95%</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>B&amp;J Poultry &amp; Cattle Farm Inc</t>
+  </si>
+  <si>
+    <t>Evansville</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>-4.28%</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Farm To Table Catering LLC</t>
+  </si>
+  <si>
+    <t>Rosemary Beach</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>-6.5%</t>
+  </si>
+  <si>
+    <t>Gentle Touch Grooming By Aly LLC</t>
+  </si>
+  <si>
+    <t>Crofton</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Animal Production</t>
+  </si>
+  <si>
+    <t>-2.4%</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>Henning Family Farm</t>
+  </si>
+  <si>
+    <t>Colfax</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>-3.79%</t>
+  </si>
+  <si>
+    <t>Northwest Pork Inc</t>
+  </si>
+  <si>
+    <t>Inwood</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Cereals, Leguminous Crops &amp; Oil Seeds</t>
+  </si>
+  <si>
+    <t>-2.52%</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>Magnus Family Farm</t>
+  </si>
+  <si>
+    <t>Snohomish</t>
+  </si>
+  <si>
+    <t>-5.44%</t>
+  </si>
+  <si>
+    <t>Hattenburg Family Farm</t>
+  </si>
+  <si>
+    <t>Spokane</t>
+  </si>
+  <si>
+    <t>-9.63%</t>
+  </si>
+  <si>
+    <t>Matheson Family Farm</t>
+  </si>
+  <si>
+    <t>Kailua</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>-7.56%</t>
+  </si>
+  <si>
+    <t>Hudson Family Farm</t>
+  </si>
+  <si>
+    <t>Piney Flats</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>2.89%</t>
+  </si>
+  <si>
+    <t>Oakwood Ranch LLC</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>-16%</t>
+  </si>
+  <si>
+    <t>Jones Family Farm</t>
+  </si>
+  <si>
+    <t>Jonesborough</t>
+  </si>
+  <si>
+    <t>2.75%</t>
+  </si>
+  <si>
+    <t>Smith Family Farm</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>0.88%</t>
+  </si>
+  <si>
+    <t>Markt Family Farm</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>7.83%</t>
+  </si>
+  <si>
+    <t>Kling Hay Contracting</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>-13.55%</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Ray Camp Inc.</t>
+  </si>
+  <si>
+    <t>Russellville</t>
+  </si>
+  <si>
+    <t>Forestry Support Services</t>
+  </si>
+  <si>
+    <t>-6.79%</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>Hovers Family Farm</t>
+  </si>
+  <si>
+    <t>Rydal</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>-7.72%</t>
+  </si>
+  <si>
+    <t>James Temple Forestry Service</t>
+  </si>
+  <si>
+    <t>Hermitage</t>
+  </si>
+  <si>
+    <t>Forestry &amp; Logging</t>
+  </si>
+  <si>
+    <t>23.48%</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>Heartland Family Farms Trucking LLC</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>10.63%</t>
+  </si>
+  <si>
+    <t>Cherry Ridge Ranch Inc</t>
+  </si>
+  <si>
+    <t>Chinook</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>Gaskins Family Farm</t>
+  </si>
+  <si>
+    <t>Marble Falls</t>
+  </si>
+  <si>
+    <t>-16.86%</t>
+  </si>
+  <si>
+    <t>One Halal Farm Limited Liability Company</t>
+  </si>
+  <si>
+    <t>Fayetteville</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>-3.31%</t>
+  </si>
+  <si>
+    <t>Moore Family Farm</t>
+  </si>
+  <si>
+    <t>Rootstown</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>9.98%</t>
+  </si>
+  <si>
+    <t>Brown Family Farm</t>
+  </si>
+  <si>
+    <t>Peoria</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>-27.72%</t>
+  </si>
+  <si>
+    <t>Sparks Harris Family Farm</t>
+  </si>
+  <si>
+    <t>Kearney</t>
+  </si>
+  <si>
+    <t>-16.75%</t>
+  </si>
+  <si>
+    <t>Hartner Family Farm</t>
+  </si>
+  <si>
+    <t>Arvada</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>-8.06%</t>
+  </si>
+  <si>
+    <t>Sons Family Farm</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>-18.4%</t>
+  </si>
+  <si>
+    <t>Hamilton Family Farm</t>
+  </si>
+  <si>
+    <t>Forestburg</t>
+  </si>
+  <si>
+    <t>6.91%</t>
+  </si>
+  <si>
+    <t>Black Family Farm</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>-19.61%</t>
+  </si>
+  <si>
+    <t>Lanier Hereford Farm</t>
+  </si>
+  <si>
+    <t>Jachin</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>29.87%</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>Hawley Ranch Service</t>
+  </si>
+  <si>
+    <t>Yakima</t>
+  </si>
+  <si>
+    <t>Agricultural Support &amp; Post-Harvest Activities</t>
+  </si>
+  <si>
+    <t>-10.25%</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>Tipsy Bee Inc</t>
+  </si>
+  <si>
+    <t>Chinquapin</t>
+  </si>
+  <si>
+    <t>16.11%</t>
+  </si>
+  <si>
+    <t>Klenke Family Farm</t>
+  </si>
+  <si>
+    <t>Kinsley</t>
+  </si>
+  <si>
+    <t>28.01%</t>
+  </si>
+  <si>
+    <t>Dehond Family Farm</t>
+  </si>
+  <si>
+    <t>Canandaigua</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>-10.29%</t>
+  </si>
+  <si>
+    <t>Mccullough Family Farm</t>
+  </si>
+  <si>
+    <t>$400.9k USD</t>
+  </si>
+  <si>
+    <t>-15.62%</t>
+  </si>
+  <si>
+    <t>Vision Point Property Management LLC</t>
+  </si>
+  <si>
+    <t>La Place</t>
+  </si>
+  <si>
+    <t>34.68%</t>
+  </si>
+  <si>
+    <t>Frank's Farm LLC</t>
+  </si>
+  <si>
+    <t>Denton</t>
   </si>
   <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Farming &amp; Hunting</t>
-  </si>
-  <si>
-    <t>$201.0k USD</t>
-  </si>
-  <si>
-    <t>-9.26%</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Louis Martinez Jr</t>
-  </si>
-  <si>
-    <t>Porterville</t>
+    <t>-2.56%</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>Noerenberg Family Farm</t>
+  </si>
+  <si>
+    <t>Ithaca</t>
+  </si>
+  <si>
+    <t>1.91%</t>
+  </si>
+  <si>
+    <t>Allert Family Farm</t>
+  </si>
+  <si>
+    <t>Coeur d'Alene</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>-17.93%</t>
+  </si>
+  <si>
+    <t>Knoblock Family Farm</t>
+  </si>
+  <si>
+    <t>Vacaville</t>
   </si>
   <si>
     <t>California</t>
   </si>
   <si>
+    <t>-12.14%</t>
+  </si>
+  <si>
+    <t>Mason Family Farm</t>
+  </si>
+  <si>
+    <t>Lewiston</t>
+  </si>
+  <si>
+    <t>2.86%</t>
+  </si>
+  <si>
+    <t>Ross Family Farm</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>-18.89%</t>
+  </si>
+  <si>
+    <t>Dinning Family Farm</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>6.24%</t>
+  </si>
+  <si>
+    <t>Krankenberg Family Farm</t>
+  </si>
+  <si>
+    <t>Oakhurst</t>
+  </si>
+  <si>
+    <t>-5.35%</t>
+  </si>
+  <si>
+    <t>Tom Hagan Farms Inc.</t>
+  </si>
+  <si>
+    <t>Scobey</t>
+  </si>
+  <si>
+    <t>-5.48%</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>Gardner Family Farm</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>-14.33%</t>
+  </si>
+  <si>
+    <t>Roopville</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>A&amp;A Farms</t>
+  </si>
+  <si>
+    <t>Tillar</t>
+  </si>
+  <si>
+    <t>13.55%</t>
+  </si>
+  <si>
+    <t>Warthen Family Farm</t>
+  </si>
+  <si>
+    <t>Albion</t>
+  </si>
+  <si>
+    <t>0.32%</t>
+  </si>
+  <si>
+    <t>Crook Family Farm</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>-6.96%</t>
+  </si>
+  <si>
+    <t>Paul Smith</t>
+  </si>
+  <si>
+    <t>Petersburg</t>
+  </si>
+  <si>
+    <t>Cattle &amp; Buffaloes</t>
+  </si>
+  <si>
+    <t>-4.16%</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Allison John</t>
+  </si>
+  <si>
+    <t>Scottville</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>18.92%</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>Van Rossum Family Farm</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>10.36%</t>
+  </si>
+  <si>
+    <t>Henry Berger Farm</t>
+  </si>
+  <si>
+    <t>Luverne</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>-7.97%</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>Canine Kennels Of Clarence</t>
+  </si>
+  <si>
+    <t>Clarence Center</t>
+  </si>
+  <si>
+    <t>11.13%</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>Greenstar Land Management LLC</t>
+  </si>
+  <si>
+    <t>Asheville</t>
+  </si>
+  <si>
+    <t>-11.66%</t>
+  </si>
+  <si>
+    <t>Ohmes Family Farm</t>
+  </si>
+  <si>
+    <t>Wentzville</t>
+  </si>
+  <si>
+    <t>-7.71%</t>
+  </si>
+  <si>
+    <t>Barnett Family Farm</t>
+  </si>
+  <si>
+    <t>Taylorsville</t>
+  </si>
+  <si>
+    <t>3.53%</t>
+  </si>
+  <si>
+    <t>Lundgren Angus Ranch</t>
+  </si>
+  <si>
+    <t>Gove</t>
+  </si>
+  <si>
+    <t>-8.82%</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>Kruger Family Farm</t>
+  </si>
+  <si>
+    <t>Centertown</t>
+  </si>
+  <si>
+    <t>32.61%</t>
+  </si>
+  <si>
+    <t>Peck Family Farm</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>-30.76%</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Le Family Farm</t>
+  </si>
+  <si>
+    <t>Pass Christian</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>Rimrock Valley Ranch</t>
+  </si>
+  <si>
+    <t>Benton City</t>
+  </si>
+  <si>
+    <t>4.58%</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>Justice Family Farm</t>
+  </si>
+  <si>
+    <t>League City</t>
+  </si>
+  <si>
+    <t>2.83%</t>
+  </si>
+  <si>
+    <t>Doyle Animal Chiropractic</t>
+  </si>
+  <si>
+    <t>Sparks</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>-1.23%</t>
+  </si>
+  <si>
+    <t>Schake Farms Inc.</t>
+  </si>
+  <si>
+    <t>-1.43%</t>
+  </si>
+  <si>
+    <t>Sunwall Family Farm</t>
+  </si>
+  <si>
+    <t>Castle Rock</t>
+  </si>
+  <si>
+    <t>-15.16%</t>
+  </si>
+  <si>
+    <t>Rinde Farms LLC</t>
+  </si>
+  <si>
+    <t>Long Prairie</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>-18.2%</t>
+  </si>
+  <si>
+    <t>Williams Family Farm</t>
+  </si>
+  <si>
+    <t>7.74%</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Cowand Family Farm</t>
+  </si>
+  <si>
+    <t>Merry Hill</t>
+  </si>
+  <si>
+    <t>14.36%</t>
+  </si>
+  <si>
+    <t>Fry Creek Ranch Inc</t>
+  </si>
+  <si>
+    <t>Bonners Ferry</t>
+  </si>
+  <si>
+    <t>36.03%</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>Nixon Family Farm</t>
+  </si>
+  <si>
+    <t>17.29%</t>
+  </si>
+  <si>
+    <t>Barker Family Farm</t>
+  </si>
+  <si>
+    <t>Soda Springs</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>Dirty Doodle</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>8.31%</t>
+  </si>
+  <si>
+    <t>Tabor Family Farm</t>
+  </si>
+  <si>
+    <t>Loveland</t>
+  </si>
+  <si>
+    <t>-20.82%</t>
+  </si>
+  <si>
+    <t>Alder Family Farm</t>
+  </si>
+  <si>
+    <t>San Bernardino</t>
+  </si>
+  <si>
+    <t>2.84%</t>
+  </si>
+  <si>
+    <t>Bunn Tree Farm</t>
+  </si>
+  <si>
+    <t>Rocky Mount</t>
+  </si>
+  <si>
     <t>Crop Production Activities</t>
   </si>
   <si>
-    <t>15.69%</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Blondees Goochie Pooch</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Animal Production</t>
-  </si>
-  <si>
-    <t>-1.95%</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>Dexter Family Farm</t>
-  </si>
-  <si>
-    <t>De Kalb</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>-22.86%</t>
-  </si>
-  <si>
-    <t>Rockin Ranch</t>
-  </si>
-  <si>
-    <t>Lawton</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>-23.13%</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>Walton Family Farm</t>
-  </si>
-  <si>
-    <t>Newton</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>-30.37%</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Alexander Family Farm</t>
-  </si>
-  <si>
-    <t>Fulton</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>Evans Family Farm</t>
-  </si>
-  <si>
-    <t>Defiance</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>-7.19%</t>
-  </si>
-  <si>
-    <t>Randy Daniels</t>
-  </si>
-  <si>
-    <t>Hale</t>
-  </si>
-  <si>
-    <t>Cereals, Leguminous Crops &amp; Oil Seeds</t>
-  </si>
-  <si>
-    <t>1.62%</t>
+    <t>-15.44%</t>
+  </si>
+  <si>
+    <t>Zimmerman Family Farm</t>
+  </si>
+  <si>
+    <t>Shawnee</t>
+  </si>
+  <si>
+    <t>6.08%</t>
+  </si>
+  <si>
+    <t>H H H Partnership</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>18.53%</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>Schmidt Family Farm</t>
+  </si>
+  <si>
+    <t>Farmington</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Rasmussen Farm</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>19.6%</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Kitty Creek Farms LLC</t>
+  </si>
+  <si>
+    <t>Monticello</t>
+  </si>
+  <si>
+    <t>-20.96%</t>
+  </si>
+  <si>
+    <t>Fletcher Family Farm</t>
+  </si>
+  <si>
+    <t>5.83%</t>
+  </si>
+  <si>
+    <t>Bennett Family Farm</t>
+  </si>
+  <si>
+    <t>0.64%</t>
+  </si>
+  <si>
+    <t>Madden Family Farm</t>
+  </si>
+  <si>
+    <t>-3.93%</t>
+  </si>
+  <si>
+    <t>Koester Family Farm</t>
+  </si>
+  <si>
+    <t>Wellfleet</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>Ostigaard Family Farm</t>
+  </si>
+  <si>
+    <t>Byers</t>
+  </si>
+  <si>
+    <t>-10.24%</t>
+  </si>
+  <si>
+    <t>Mears Family Farm</t>
+  </si>
+  <si>
+    <t>Bonner Springs</t>
+  </si>
+  <si>
+    <t>-2.5%</t>
+  </si>
+  <si>
+    <t>Wohlford Family Farm</t>
+  </si>
+  <si>
+    <t>Bellaire</t>
+  </si>
+  <si>
+    <t>-1.53%</t>
+  </si>
+  <si>
+    <t>Skinner Family Farm</t>
+  </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>-15.46%</t>
+  </si>
+  <si>
+    <t>Brennecke Family Farm</t>
+  </si>
+  <si>
+    <t>New Bloomfield</t>
+  </si>
+  <si>
+    <t>18.66%</t>
+  </si>
+  <si>
+    <t>Gallegos Family Farm</t>
+  </si>
+  <si>
+    <t>Kaufman</t>
+  </si>
+  <si>
+    <t>-6.77%</t>
+  </si>
+  <si>
+    <t>Tieman Family Farm</t>
+  </si>
+  <si>
+    <t>-15.95%</t>
+  </si>
+  <si>
+    <t>Breezy Hill Dairy LLC</t>
+  </si>
+  <si>
+    <t>Waunakee</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>3.56%</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>Kesting Family Farm</t>
-  </si>
-  <si>
-    <t>Sulphur Springs</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>-25.94%</t>
-  </si>
-  <si>
-    <t>Mckinnie Family Farm</t>
-  </si>
-  <si>
-    <t>Sneads</t>
-  </si>
-  <si>
-    <t>-1.1%</t>
-  </si>
-  <si>
-    <t>Mobley Family Farm</t>
-  </si>
-  <si>
-    <t>Beulaville</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>-21.54%</t>
-  </si>
-  <si>
-    <t>Metcalf Family Farm</t>
-  </si>
-  <si>
-    <t>Flag Pond</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>-21.27%</t>
-  </si>
-  <si>
-    <t>Quinlan Family Farm</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>-11.4%</t>
-  </si>
-  <si>
-    <t>Gerald Rodine</t>
-  </si>
-  <si>
-    <t>Oakes</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Cattle &amp; Buffaloes</t>
-  </si>
-  <si>
-    <t>-2.43%</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>Shexnayder Family Farm</t>
-  </si>
-  <si>
-    <t>Arnaudville</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>-16.36%</t>
-  </si>
-  <si>
-    <t>Smith Family Farm</t>
-  </si>
-  <si>
-    <t>Henderson</t>
-  </si>
-  <si>
-    <t>-20.5%</t>
-  </si>
-  <si>
-    <t>Clairmont Show Stables</t>
-  </si>
-  <si>
-    <t>Sterrett</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>-6.42%</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>Hall Family Farm</t>
-  </si>
-  <si>
-    <t>Elsberry</t>
-  </si>
-  <si>
-    <t>-16.87%</t>
-  </si>
-  <si>
-    <t>Armagost Family Farm</t>
-  </si>
-  <si>
-    <t>Cottonwood Falls</t>
-  </si>
-  <si>
-    <t>-11.82%</t>
-  </si>
-  <si>
-    <t>Walker Family Farm</t>
-  </si>
-  <si>
-    <t>Altheimer</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>-4.68%</t>
-  </si>
-  <si>
-    <t>Hubl Family Farm</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>0.19%</t>
-  </si>
-  <si>
-    <t>Petstylz</t>
-  </si>
-  <si>
-    <t>Utica</t>
-  </si>
-  <si>
-    <t>-16.26%</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>Siebert Family Farm</t>
-  </si>
-  <si>
-    <t>St John</t>
-  </si>
-  <si>
-    <t>-17.41%</t>
-  </si>
-  <si>
-    <t>Sutton Family Farm</t>
-  </si>
-  <si>
-    <t>East Prairie</t>
-  </si>
-  <si>
-    <t>-26.94%</t>
-  </si>
-  <si>
-    <t>Brantley Family Farm</t>
-  </si>
-  <si>
-    <t>Wrightsville</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>-8.92%</t>
-  </si>
-  <si>
-    <t>Keep It Waggin</t>
-  </si>
-  <si>
-    <t>Reedsville</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>-4.97%</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>Sullins Family Farm</t>
-  </si>
-  <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>-12.16%</t>
-  </si>
-  <si>
-    <t>John Mc Lean Seed Company</t>
-  </si>
-  <si>
-    <t>Colville</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Silviculture &amp; Other Forestry Activities</t>
-  </si>
-  <si>
-    <t>0.82%</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>Schrick Family Farm</t>
-  </si>
-  <si>
-    <t>Chattanooga</t>
-  </si>
-  <si>
-    <t>-6.6%</t>
-  </si>
-  <si>
-    <t>Mccauley Family Farm</t>
-  </si>
-  <si>
-    <t>Cynthiana</t>
-  </si>
-  <si>
-    <t>-23.97%</t>
-  </si>
-  <si>
-    <t>Ard Family Farm</t>
-  </si>
-  <si>
-    <t>Upton</t>
-  </si>
-  <si>
-    <t>-23.09%</t>
-  </si>
-  <si>
-    <t>Guidry Family Farm</t>
-  </si>
-  <si>
-    <t>Kaplan</t>
-  </si>
-  <si>
-    <t>-13.06%</t>
-  </si>
-  <si>
-    <t>Albano Family Farm</t>
-  </si>
-  <si>
-    <t>Stamford</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>-13.13%</t>
-  </si>
-  <si>
-    <t>Tylertown</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>-13.62%</t>
-  </si>
-  <si>
-    <t>Leininger Family Farm</t>
-  </si>
-  <si>
-    <t>Fayette</t>
-  </si>
-  <si>
-    <t>-8.17%</t>
-  </si>
-  <si>
-    <t>Gottschalk Neil J</t>
-  </si>
-  <si>
-    <t>Hays</t>
-  </si>
-  <si>
-    <t>-31.75%</t>
-  </si>
-  <si>
-    <t>Eltiste Family Farm</t>
-  </si>
-  <si>
-    <t>Tecumseh</t>
-  </si>
-  <si>
-    <t>-18.14%</t>
-  </si>
-  <si>
-    <t>Cline Family Farm</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>2.73%</t>
-  </si>
-  <si>
-    <t>Hilderbrand Family Farm</t>
-  </si>
-  <si>
-    <t>Chetopa</t>
-  </si>
-  <si>
-    <t>-19.06%</t>
-  </si>
-  <si>
-    <t>Vigneri Family Farm</t>
-  </si>
-  <si>
-    <t>Batavia</t>
-  </si>
-  <si>
-    <t>-7.68%</t>
-  </si>
-  <si>
-    <t>Marlar Family Farm</t>
-  </si>
-  <si>
-    <t>Corinth</t>
-  </si>
-  <si>
-    <t>-21.85%</t>
-  </si>
-  <si>
-    <t>Lynch Family Farm</t>
-  </si>
-  <si>
-    <t>Purcell</t>
-  </si>
-  <si>
-    <t>-33.86%</t>
-  </si>
-  <si>
-    <t>Franke Family Farm</t>
-  </si>
-  <si>
-    <t>Coahoma</t>
-  </si>
-  <si>
-    <t>-17.43%</t>
-  </si>
-  <si>
-    <t>Rogister Family Farm</t>
-  </si>
-  <si>
-    <t>Tarboro</t>
-  </si>
-  <si>
-    <t>-16.74%</t>
-  </si>
-  <si>
-    <t>Teeter Family Farm</t>
-  </si>
-  <si>
-    <t>Ulysses</t>
-  </si>
-  <si>
-    <t>-19.33%</t>
-  </si>
-  <si>
-    <t>Bradshaw Family Farm</t>
-  </si>
-  <si>
-    <t>Mount Pleasant</t>
-  </si>
-  <si>
-    <t>-5.78%</t>
-  </si>
-  <si>
-    <t>Harden Family Farm</t>
-  </si>
-  <si>
-    <t>Abbeville</t>
-  </si>
-  <si>
-    <t>-11.39%</t>
-  </si>
-  <si>
-    <t>Allen Family Farm</t>
-  </si>
-  <si>
-    <t>Tar Heel</t>
-  </si>
-  <si>
-    <t>-10.29%</t>
-  </si>
-  <si>
-    <t>Blackwell Family Farm</t>
-  </si>
-  <si>
-    <t>Cowpens</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>-17.01%</t>
-  </si>
-  <si>
-    <t>Wistinghausen Family Farm</t>
-  </si>
-  <si>
-    <t>Montpelier</t>
-  </si>
-  <si>
-    <t>-4.78%</t>
-  </si>
-  <si>
-    <t>Wedel Family Farm</t>
-  </si>
-  <si>
-    <t>7.23%</t>
-  </si>
-  <si>
-    <t>Classy K-9's Inc.</t>
-  </si>
-  <si>
-    <t>Lemoyne</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>24.34%</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>Myers Family Farm</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>-19.47%</t>
-  </si>
-  <si>
-    <t>Dennis Family Farm</t>
-  </si>
-  <si>
-    <t>Hemingway</t>
-  </si>
-  <si>
-    <t>-3.06%</t>
-  </si>
-  <si>
-    <t>Young Family Farm</t>
-  </si>
-  <si>
-    <t>Catlettsburg</t>
-  </si>
-  <si>
-    <t>-14.08%</t>
-  </si>
-  <si>
-    <t>Monteith Family Farm</t>
-  </si>
-  <si>
-    <t>Tollesboro</t>
-  </si>
-  <si>
-    <t>-1.26%</t>
-  </si>
-  <si>
-    <t>Schuman Family Farm</t>
-  </si>
-  <si>
-    <t>Wathena</t>
-  </si>
-  <si>
-    <t>-25.86%</t>
-  </si>
-  <si>
-    <t>Barker Shop</t>
-  </si>
-  <si>
-    <t>Milwaukee</t>
-  </si>
-  <si>
-    <t>-11.54%</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>Armstrong Family Farm</t>
-  </si>
-  <si>
-    <t>Murray</t>
-  </si>
-  <si>
-    <t>-16.15%</t>
-  </si>
-  <si>
-    <t>Peterman Family Farm</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>-27.09%</t>
-  </si>
-  <si>
-    <t>Tim And Renae Vandenboom Farms</t>
-  </si>
-  <si>
-    <t>Munger</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>-17.12%</t>
-  </si>
-  <si>
-    <t>Keeton Family Farm</t>
-  </si>
-  <si>
-    <t>Decaturville</t>
-  </si>
-  <si>
-    <t>-8.6%</t>
+    <t>Parker Dairy Inc</t>
+  </si>
+  <si>
+    <t>Wellsville</t>
+  </si>
+  <si>
+    <t>-5.38%</t>
+  </si>
+  <si>
+    <t>1978</t>
   </si>
   <si>
     <t>Johnson Family Farm</t>
   </si>
   <si>
-    <t>Risingsun</t>
-  </si>
-  <si>
-    <t>-5.69%</t>
-  </si>
-  <si>
-    <t>Seward Family Farm</t>
-  </si>
-  <si>
-    <t>Monroe City</t>
-  </si>
-  <si>
-    <t>-7.07%</t>
-  </si>
-  <si>
-    <t>Hinson Family Farm</t>
-  </si>
-  <si>
-    <t>Whiteville</t>
-  </si>
-  <si>
-    <t>-11.81%</t>
-  </si>
-  <si>
-    <t>Karr Family Farm</t>
-  </si>
-  <si>
-    <t>Coshocton</t>
-  </si>
-  <si>
-    <t>-15.06%</t>
-  </si>
-  <si>
-    <t>Bowman Family Farm</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>-21%</t>
-  </si>
-  <si>
-    <t>Charles Manner Farm</t>
-  </si>
-  <si>
-    <t>West Edmeston</t>
-  </si>
-  <si>
-    <t>8.55%</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>Thrasher Family Farm</t>
-  </si>
-  <si>
-    <t>Burkesville</t>
-  </si>
-  <si>
-    <t>-15.62%</t>
-  </si>
-  <si>
-    <t>Schautzie's Boxer Kennel</t>
-  </si>
-  <si>
-    <t>Lufkin</t>
-  </si>
-  <si>
-    <t>8.93%</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>Wilbur Family Farm</t>
-  </si>
-  <si>
-    <t>Great Bend</t>
-  </si>
-  <si>
-    <t>-14.15%</t>
-  </si>
-  <si>
-    <t>Bone-A-Fide Pet Boarding &amp; Service</t>
-  </si>
-  <si>
-    <t>Florence</t>
-  </si>
-  <si>
-    <t>-3.12%</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>Kidwell Family Farm</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>-6.14%</t>
-  </si>
-  <si>
-    <t>Bell Family Farm</t>
-  </si>
-  <si>
-    <t>Coffeyville</t>
-  </si>
-  <si>
-    <t>-11.48%</t>
-  </si>
-  <si>
-    <t>Bloomingtails Pet Grooming</t>
-  </si>
-  <si>
-    <t>Streator</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>3.05%</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>Gossett Family Farm</t>
-  </si>
-  <si>
-    <t>Centre</t>
-  </si>
-  <si>
-    <t>$200.9k USD</t>
-  </si>
-  <si>
-    <t>-27.14%</t>
-  </si>
-  <si>
-    <t>Koenig Family Farm</t>
-  </si>
-  <si>
-    <t>Spickard</t>
-  </si>
-  <si>
-    <t>Johnson James B Jr</t>
-  </si>
-  <si>
-    <t>Hartsville</t>
-  </si>
-  <si>
-    <t>-12.1%</t>
-  </si>
-  <si>
-    <t>Puppy Cuts Inc.</t>
-  </si>
-  <si>
-    <t>Avon Park</t>
-  </si>
-  <si>
-    <t>16.41%</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>Weerts Broiler Farm</t>
-  </si>
-  <si>
-    <t>Springfield</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>-4.38%</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>Tyler Family Farm</t>
-  </si>
-  <si>
-    <t>Donalsonville</t>
-  </si>
-  <si>
-    <t>-11.74%</t>
-  </si>
-  <si>
-    <t>Luu Family Farm</t>
-  </si>
-  <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>-11.46%</t>
-  </si>
-  <si>
-    <t>Springwoods Paradise</t>
-  </si>
-  <si>
-    <t>Buchanan</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>-3.84%</t>
-  </si>
-  <si>
-    <t>Davis Family Farm</t>
-  </si>
-  <si>
-    <t>Pleasanton</t>
-  </si>
-  <si>
-    <t>-9.24%</t>
-  </si>
-  <si>
-    <t>Newman Family Farm</t>
-  </si>
-  <si>
-    <t>Gilbert</t>
-  </si>
-  <si>
-    <t>-22.34%</t>
-  </si>
-  <si>
-    <t>Groth Family Farm</t>
-  </si>
-  <si>
-    <t>Fortuna</t>
-  </si>
-  <si>
-    <t>-14.76%</t>
-  </si>
-  <si>
-    <t>Harmon Family Farm</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>-13.75%</t>
-  </si>
-  <si>
-    <t>J And J Stables LLC</t>
-  </si>
-  <si>
-    <t>Rincon</t>
-  </si>
-  <si>
-    <t>7.61%</t>
-  </si>
-  <si>
-    <t>Marshall Family Farm</t>
-  </si>
-  <si>
-    <t>Mc Clure</t>
-  </si>
-  <si>
-    <t>-4.95%</t>
-  </si>
-  <si>
-    <t>Duane Ehlert</t>
-  </si>
-  <si>
-    <t>Mondamin</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>-11.61%</t>
-  </si>
-  <si>
-    <t>Hayes Family Farm</t>
-  </si>
-  <si>
-    <t>Clarkson</t>
-  </si>
-  <si>
-    <t>-19.92%</t>
-  </si>
-  <si>
-    <t>Lintner Family Farm</t>
-  </si>
-  <si>
-    <t>Mooreland</t>
-  </si>
-  <si>
-    <t>-27.01%</t>
-  </si>
-  <si>
-    <t>Robert Henderson</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>-5.42%</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>Miller Family Farm</t>
-  </si>
-  <si>
-    <t>Mayfield</t>
-  </si>
-  <si>
-    <t>-11.15%</t>
-  </si>
-  <si>
-    <t>All 4S Grooming</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>-8.23%</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>Moore Family Farm</t>
-  </si>
-  <si>
-    <t>East Bernstadt</t>
-  </si>
-  <si>
-    <t>-10.96%</t>
-  </si>
-  <si>
-    <t>Cowley Family Farm</t>
-  </si>
-  <si>
-    <t>Smithville</t>
-  </si>
-  <si>
-    <t>-20.89%</t>
-  </si>
-  <si>
-    <t>Hrim Family Farm</t>
-  </si>
-  <si>
-    <t>Constableville</t>
-  </si>
-  <si>
-    <t>-20.61%</t>
-  </si>
-  <si>
-    <t>Jenkins Family Farm</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>-1.75%</t>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>-16.98%</t>
+  </si>
+  <si>
+    <t>Voigts Family Farm</t>
+  </si>
+  <si>
+    <t>Flower Mound</t>
+  </si>
+  <si>
+    <t>17.52%</t>
   </si>
 </sst>
 </file>
@@ -1606,19 +1612,19 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -1627,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1635,25 +1641,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -1668,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1676,16 +1682,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1694,13 +1700,13 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
         <v>22</v>
@@ -1717,16 +1723,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1735,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -1750,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1758,40 +1764,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
         <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1808,7 +1814,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1817,7 +1823,7 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -1832,7 +1838,7 @@
         <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1840,25 +1846,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
@@ -1873,7 +1879,7 @@
         <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1881,31 +1887,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -1914,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1931,7 +1937,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1940,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -1955,7 +1961,7 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1963,16 +1969,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1996,7 +2002,7 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2037,7 +2043,7 @@
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2054,7 +2060,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -2063,7 +2069,7 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
@@ -2078,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2086,16 +2092,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2104,7 +2110,7 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
@@ -2119,7 +2125,7 @@
         <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2127,31 +2133,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
         <v>22</v>
@@ -2160,7 +2166,7 @@
         <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2168,16 +2174,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2186,7 +2192,7 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -2201,7 +2207,7 @@
         <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2209,16 +2215,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -2227,13 +2233,13 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K18" t="s">
         <v>22</v>
@@ -2242,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -2250,31 +2256,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -2283,7 +2289,7 @@
         <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -2291,16 +2297,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
         <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -2309,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -2324,7 +2330,7 @@
         <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2332,19 +2338,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
         <v>105</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -2365,7 +2371,7 @@
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -2373,16 +2379,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2391,13 +2397,13 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K22" t="s">
         <v>22</v>
@@ -2406,7 +2412,7 @@
         <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -2414,16 +2420,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -2432,7 +2438,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
@@ -2447,7 +2453,7 @@
         <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -2455,31 +2461,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
@@ -2488,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -2496,16 +2502,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>121</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -2546,7 +2552,7 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -2555,7 +2561,7 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -2570,7 +2576,7 @@
         <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -2578,16 +2584,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -2596,7 +2602,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
@@ -2611,7 +2617,7 @@
         <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -2619,19 +2625,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -2652,7 +2658,7 @@
         <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -2660,16 +2666,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>136</v>
-      </c>
-      <c r="E29" t="s">
-        <v>109</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -2693,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -2713,13 +2719,13 @@
         <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
@@ -2734,7 +2740,7 @@
         <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -2742,16 +2748,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2760,7 +2766,7 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I31" t="s">
         <v>20</v>
@@ -2775,7 +2781,7 @@
         <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -2783,16 +2789,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -2801,7 +2807,7 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
@@ -2816,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -2824,16 +2830,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" t="s">
         <v>150</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2842,22 +2848,22 @@
         <v>18</v>
       </c>
       <c r="H33" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" t="s">
         <v>152</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -2874,16 +2880,16 @@
         <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
@@ -2898,7 +2904,7 @@
         <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
@@ -2906,16 +2912,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -2924,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
@@ -2939,7 +2945,7 @@
         <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -2947,16 +2953,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -2965,7 +2971,7 @@
         <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -2980,7 +2986,7 @@
         <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -2988,16 +2994,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -3006,7 +3012,7 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -3021,7 +3027,7 @@
         <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -3029,31 +3035,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
@@ -3062,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -3070,31 +3076,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
@@ -3103,7 +3109,7 @@
         <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -3111,25 +3117,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H40" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -3144,7 +3150,7 @@
         <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41">
@@ -3152,25 +3158,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
@@ -3185,7 +3191,7 @@
         <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -3193,25 +3199,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H42" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -3226,7 +3232,7 @@
         <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -3234,25 +3240,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
@@ -3267,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -3275,31 +3281,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
@@ -3308,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -3316,25 +3322,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="s">
         <v>188</v>
       </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
       <c r="F45" t="s">
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I45" t="s">
         <v>20</v>
@@ -3349,7 +3355,7 @@
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -3357,25 +3363,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H46" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I46" t="s">
         <v>20</v>
@@ -3390,7 +3396,7 @@
         <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -3398,25 +3404,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H47" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I47" t="s">
         <v>20</v>
@@ -3431,7 +3437,7 @@
         <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -3439,25 +3445,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I48" t="s">
         <v>20</v>
@@ -3472,7 +3478,7 @@
         <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49">
@@ -3480,25 +3486,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H49" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I49" t="s">
         <v>20</v>
@@ -3513,7 +3519,7 @@
         <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -3521,25 +3527,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H50" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I50" t="s">
         <v>20</v>
@@ -3554,7 +3560,7 @@
         <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -3562,31 +3568,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H51" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I51" t="s">
         <v>20</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -3595,7 +3601,7 @@
         <v>23</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -3603,25 +3609,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I52" t="s">
         <v>20</v>
@@ -3636,7 +3642,7 @@
         <v>23</v>
       </c>
       <c r="M52" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -3644,25 +3650,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H53" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I53" t="s">
         <v>20</v>
@@ -3677,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -3685,31 +3691,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H54" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I54" t="s">
         <v>20</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="K54" t="s">
         <v>22</v>
@@ -3718,7 +3724,7 @@
         <v>23</v>
       </c>
       <c r="M54" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -3726,31 +3732,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H55" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="I55" t="s">
         <v>20</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s">
         <v>22</v>
@@ -3759,7 +3765,7 @@
         <v>23</v>
       </c>
       <c r="M55" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56">
@@ -3767,25 +3773,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H56" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="I56" t="s">
         <v>20</v>
@@ -3800,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="M56" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -3808,31 +3814,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H57" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="I57" t="s">
         <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K57" t="s">
         <v>22</v>
@@ -3841,7 +3847,7 @@
         <v>23</v>
       </c>
       <c r="M57" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58">
@@ -3849,31 +3855,31 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I58" t="s">
         <v>20</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K58" t="s">
         <v>22</v>
@@ -3882,7 +3888,7 @@
         <v>23</v>
       </c>
       <c r="M58" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59">
@@ -3890,31 +3896,31 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H59" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I59" t="s">
         <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K59" t="s">
         <v>22</v>
@@ -3923,7 +3929,7 @@
         <v>23</v>
       </c>
       <c r="M59" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -3931,25 +3937,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H60" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="I60" t="s">
         <v>20</v>
@@ -3964,7 +3970,7 @@
         <v>23</v>
       </c>
       <c r="M60" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
@@ -3972,25 +3978,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H61" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I61" t="s">
         <v>20</v>
@@ -4005,7 +4011,7 @@
         <v>23</v>
       </c>
       <c r="M61" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -4013,25 +4019,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H62" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I62" t="s">
         <v>20</v>
@@ -4046,7 +4052,7 @@
         <v>23</v>
       </c>
       <c r="M62" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63">
@@ -4054,31 +4060,31 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H63" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K63" t="s">
         <v>22</v>
@@ -4087,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="M63" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -4095,31 +4101,31 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H64" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I64" t="s">
         <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="K64" t="s">
         <v>22</v>
@@ -4128,7 +4134,7 @@
         <v>23</v>
       </c>
       <c r="M64" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -4136,25 +4142,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E65" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I65" t="s">
         <v>20</v>
@@ -4169,7 +4175,7 @@
         <v>23</v>
       </c>
       <c r="M65" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
@@ -4177,25 +4183,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="I66" t="s">
         <v>20</v>
@@ -4210,7 +4216,7 @@
         <v>23</v>
       </c>
       <c r="M66" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67">
@@ -4218,25 +4224,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H67" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="I67" t="s">
         <v>20</v>
@@ -4251,7 +4257,7 @@
         <v>23</v>
       </c>
       <c r="M67" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -4259,31 +4265,31 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H68" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="I68" t="s">
         <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s">
         <v>22</v>
@@ -4292,7 +4298,7 @@
         <v>23</v>
       </c>
       <c r="M68" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
@@ -4300,25 +4306,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H69" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I69" t="s">
         <v>20</v>
@@ -4333,7 +4339,7 @@
         <v>23</v>
       </c>
       <c r="M69" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
@@ -4341,25 +4347,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H70" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="I70" t="s">
         <v>20</v>
@@ -4374,7 +4380,7 @@
         <v>23</v>
       </c>
       <c r="M70" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -4382,25 +4388,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H71" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I71" t="s">
         <v>20</v>
@@ -4415,7 +4421,7 @@
         <v>23</v>
       </c>
       <c r="M71" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
@@ -4423,31 +4429,31 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H72" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I72" t="s">
         <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
@@ -4456,7 +4462,7 @@
         <v>23</v>
       </c>
       <c r="M72" t="s">
-        <v>276</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -4464,25 +4470,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H73" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I73" t="s">
         <v>20</v>
@@ -4497,7 +4503,7 @@
         <v>23</v>
       </c>
       <c r="M73" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -4505,31 +4511,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E74" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H74" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I74" t="s">
         <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
         <v>22</v>
@@ -4538,7 +4544,7 @@
         <v>23</v>
       </c>
       <c r="M74" t="s">
-        <v>283</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
@@ -4546,31 +4552,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H75" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="I75" t="s">
         <v>20</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K75" t="s">
         <v>22</v>
@@ -4579,7 +4585,7 @@
         <v>23</v>
       </c>
       <c r="M75" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76">
@@ -4587,25 +4593,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>53</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H76" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I76" t="s">
         <v>20</v>
@@ -4620,7 +4626,7 @@
         <v>23</v>
       </c>
       <c r="M76" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
@@ -4628,31 +4634,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H77" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="I77" t="s">
         <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
         <v>22</v>
@@ -4661,7 +4667,7 @@
         <v>23</v>
       </c>
       <c r="M77" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4669,31 +4675,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H78" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I78" t="s">
         <v>20</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
@@ -4710,25 +4716,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="I79" t="s">
         <v>20</v>
@@ -4743,7 +4749,7 @@
         <v>23</v>
       </c>
       <c r="M79" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -4751,25 +4757,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E80" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H80" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I80" t="s">
         <v>20</v>
@@ -4784,7 +4790,7 @@
         <v>23</v>
       </c>
       <c r="M80" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
@@ -4792,31 +4798,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="G81" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H81" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="I81" t="s">
         <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>22</v>
@@ -4825,7 +4831,7 @@
         <v>23</v>
       </c>
       <c r="M81" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -4833,25 +4839,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E82" t="s">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H82" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="I82" t="s">
         <v>20</v>
@@ -4866,7 +4872,7 @@
         <v>23</v>
       </c>
       <c r="M82" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -4874,31 +4880,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E83" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H83" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I83" t="s">
         <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="K83" t="s">
         <v>22</v>
@@ -4907,7 +4913,7 @@
         <v>23</v>
       </c>
       <c r="M83" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84">
@@ -4915,25 +4921,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E84" t="s">
-        <v>91</v>
+        <v>324</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H84" t="s">
-        <v>318</v>
+        <v>118</v>
       </c>
       <c r="I84" t="s">
         <v>20</v>
@@ -4948,7 +4954,7 @@
         <v>23</v>
       </c>
       <c r="M84" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -4956,31 +4962,31 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E85" t="s">
-        <v>321</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H85" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I85" t="s">
         <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
         <v>22</v>
@@ -4989,7 +4995,7 @@
         <v>23</v>
       </c>
       <c r="M85" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86">
@@ -4997,25 +5003,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="G86" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H86" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I86" t="s">
         <v>20</v>
@@ -5030,7 +5036,7 @@
         <v>23</v>
       </c>
       <c r="M86" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87">
@@ -5038,25 +5044,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>327</v>
+        <v>165</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H87" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I87" t="s">
         <v>20</v>
@@ -5071,7 +5077,7 @@
         <v>23</v>
       </c>
       <c r="M87" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -5079,25 +5085,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H88" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I88" t="s">
         <v>20</v>
@@ -5112,7 +5118,7 @@
         <v>23</v>
       </c>
       <c r="M88" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -5120,25 +5126,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I89" t="s">
         <v>20</v>
@@ -5153,7 +5159,7 @@
         <v>23</v>
       </c>
       <c r="M89" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -5161,25 +5167,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E90" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H90" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I90" t="s">
         <v>20</v>
@@ -5194,7 +5200,7 @@
         <v>23</v>
       </c>
       <c r="M90" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -5202,25 +5208,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E91" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H91" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I91" t="s">
         <v>20</v>
@@ -5235,7 +5241,7 @@
         <v>23</v>
       </c>
       <c r="M91" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -5243,25 +5249,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E92" t="s">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="F92" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H92" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I92" t="s">
         <v>20</v>
@@ -5276,7 +5282,7 @@
         <v>23</v>
       </c>
       <c r="M92" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
@@ -5284,25 +5290,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H93" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I93" t="s">
         <v>20</v>
@@ -5317,7 +5323,7 @@
         <v>23</v>
       </c>
       <c r="M93" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -5325,25 +5331,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H94" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I94" t="s">
         <v>20</v>
@@ -5358,7 +5364,7 @@
         <v>23</v>
       </c>
       <c r="M94" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -5366,25 +5372,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H95" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I95" t="s">
         <v>20</v>
@@ -5399,7 +5405,7 @@
         <v>23</v>
       </c>
       <c r="M95" t="s">
-        <v>354</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -5407,25 +5413,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H96" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I96" t="s">
         <v>20</v>
@@ -5440,7 +5446,7 @@
         <v>23</v>
       </c>
       <c r="M96" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -5448,22 +5454,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>359</v>
+        <v>65</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H97" t="s">
         <v>360</v>
@@ -5481,7 +5487,7 @@
         <v>23</v>
       </c>
       <c r="M97" t="s">
-        <v>361</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
@@ -5489,22 +5495,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
         <v>362</v>
       </c>
-      <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>363</v>
       </c>
-      <c r="E98" t="s">
-        <v>16</v>
-      </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H98" t="s">
         <v>364</v>
@@ -5513,7 +5519,7 @@
         <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>21</v>
+        <v>365</v>
       </c>
       <c r="K98" t="s">
         <v>22</v>
@@ -5522,7 +5528,7 @@
         <v>23</v>
       </c>
       <c r="M98" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
@@ -5530,32 +5536,32 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>366</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>367</v>
+      </c>
+      <c r="E99" t="s">
+        <v>324</v>
+      </c>
+      <c r="F99" t="s">
+        <v>222</v>
+      </c>
+      <c r="G99" t="s">
+        <v>169</v>
+      </c>
+      <c r="H99" t="s">
+        <v>368</v>
+      </c>
+      <c r="I99" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s">
         <v>365</v>
       </c>
-      <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>366</v>
-      </c>
-      <c r="E99" t="s">
-        <v>161</v>
-      </c>
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>297</v>
-      </c>
-      <c r="H99" t="s">
-        <v>367</v>
-      </c>
-      <c r="I99" t="s">
-        <v>20</v>
-      </c>
-      <c r="J99" t="s">
-        <v>21</v>
-      </c>
       <c r="K99" t="s">
         <v>22</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>23</v>
       </c>
       <c r="M99" t="s">
-        <v>24</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100">
@@ -5571,25 +5577,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H100" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I100" t="s">
         <v>20</v>
@@ -5604,7 +5610,7 @@
         <v>23</v>
       </c>
       <c r="M100" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -5612,25 +5618,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="H101" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I101" t="s">
         <v>20</v>
@@ -5645,7 +5651,7 @@
         <v>23</v>
       </c>
       <c r="M101" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
